--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10214812-31A7-47E9-A0BC-F0EEF351BA41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E28955-47C8-4565-8E39-B53D7621DBD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5350" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="to dos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Erledigt</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Dataprojects</t>
   </si>
   <si>
-    <t>Liste, was noch zur Abgabe fehlt, hier in den Todos einfügen</t>
-  </si>
-  <si>
     <t>git-repo erstellt</t>
   </si>
   <si>
@@ -81,16 +78,31 @@
     <t>ziehe aus den drei journals wenn möglich je eine eyetracking studie, UND suche eine Bildungswissenschaftliche Studie in der Tobii Glasses benutzt wurden, lege die paper als pdf im paperordner in einen unterordner "examples" ab</t>
   </si>
   <si>
-    <t>installiere das papaja package nach der anleitung hier https://github.com/crsh/papaja</t>
-  </si>
-  <si>
-    <t>führe diese zeile aus um dein R auf English zu stellen, dann bekommst du fehlermeldungen auch in english und hast beim suchen mehr erfolg: Sys.setenv(LANG = "en")</t>
-  </si>
-  <si>
-    <t>öffne in Rstudio neues dokument, templates, rmarkdown, das APA pdf template und versuche es zu knitten (wie auf der papaja-seite beschrieben)</t>
-  </si>
-  <si>
-    <t>passe das template an uns an (namen, affiliationen,) und füge je einen absatz platzhaltertext unter den üblichen überschriften ein</t>
+    <t>ggf. Fragen an Anne notieren</t>
+  </si>
+  <si>
+    <t>Literturliste anpassen (siehe gelbmarkierte Felder)</t>
+  </si>
+  <si>
+    <t>R auf English gestellt: Sys.setenv(LANG = "en")</t>
+  </si>
+  <si>
+    <t>papaja package nach der anleitung installiert https://github.com/crsh/papaja</t>
+  </si>
+  <si>
+    <t>in Rstudio neues dokument, templates, rmarkdown, das APA pdf template geöffnet und geknittet</t>
+  </si>
+  <si>
+    <t>template an uns angepasst (namen, affiliationen) und je absatz platzhaltertext unter den üblichen überschriften eingefügt</t>
+  </si>
+  <si>
+    <t>Studien überarbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alles korrekturlesen </t>
+  </si>
+  <si>
+    <t>Pilot A Daten eingelesen</t>
   </si>
 </sst>
 </file>
@@ -505,17 +517,17 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.54296875" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.6328125" style="4" customWidth="1"/>
     <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.90625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.90625" style="4" customWidth="1"/>
     <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="10.90625" style="4"/>
@@ -550,20 +562,35 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -601,19 +628,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -622,19 +649,19 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -642,20 +669,17 @@
         <v>3</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -663,20 +687,17 @@
         <v>4</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -684,20 +705,17 @@
         <v>5</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E28955-47C8-4565-8E39-B53D7621DBD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF64003B-9E0C-4E1D-8FCD-F51FE7B72E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5350" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF64003B-9E0C-4E1D-8FCD-F51FE7B72E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE164C73-EE4E-4F51-8015-C0F721D83B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5350" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Erledigt</t>
   </si>
@@ -78,12 +78,6 @@
     <t>ziehe aus den drei journals wenn möglich je eine eyetracking studie, UND suche eine Bildungswissenschaftliche Studie in der Tobii Glasses benutzt wurden, lege die paper als pdf im paperordner in einen unterordner "examples" ab</t>
   </si>
   <si>
-    <t>ggf. Fragen an Anne notieren</t>
-  </si>
-  <si>
-    <t>Literturliste anpassen (siehe gelbmarkierte Felder)</t>
-  </si>
-  <si>
     <t>R auf English gestellt: Sys.setenv(LANG = "en")</t>
   </si>
   <si>
@@ -96,13 +90,19 @@
     <t>template an uns angepasst (namen, affiliationen) und je absatz platzhaltertext unter den üblichen überschriften eingefügt</t>
   </si>
   <si>
-    <t>Studien überarbeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alles korrekturlesen </t>
-  </si>
-  <si>
     <t>Pilot A Daten eingelesen</t>
+  </si>
+  <si>
+    <t>Studien überarbeitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alles korrekturgelesen </t>
+  </si>
+  <si>
+    <t>Literturliste angepasst</t>
+  </si>
+  <si>
+    <t>Fragen an Anne notiert</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,7 +563,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -572,33 +572,45 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -634,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>15</v>
@@ -655,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>15</v>
@@ -673,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>15</v>
@@ -691,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>15</v>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE164C73-EE4E-4F51-8015-C0F721D83B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EE7AFF-3548-4C49-821E-87863E6218AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5350" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Erledigt</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Fragen an Anne notiert</t>
+  </si>
+  <si>
+    <t>GLMM-Artikel lesen + verstehen</t>
   </si>
 </sst>
 </file>
@@ -516,9 +519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978B23EF-BDBB-4406-B8A8-537EF3380855}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>11</v>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE164C73-EE4E-4F51-8015-C0F721D83B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DFD9E8-748B-4C39-9C5D-86145017E651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5350" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Erledigt</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Fragen an Anne notiert</t>
+  </si>
+  <si>
+    <t>Statistik GLMM paper lesen</t>
+  </si>
+  <si>
+    <t>Studiendesign - Studie 1/ LAborstudie grob beschreiben</t>
   </si>
 </sst>
 </file>
@@ -516,9 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978B23EF-BDBB-4406-B8A8-537EF3380855}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,10 +652,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>11</v>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EE7AFF-3548-4C49-821E-87863E6218AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483F349-A466-430D-BC2F-BA8B15C6EFA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5350" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Erledigt</t>
   </si>
   <si>
-    <t>Diese Woche</t>
-  </si>
-  <si>
     <t>To do-Allgemein</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Pilot: automatic mapping mit snapshot auch für die Papieraufgabe (d2, matheaufgabe) um zu schauen, ob die beiden aufgabenblättter gefunden werden und um zu plotten "attention to class vs to task"</t>
   </si>
   <si>
-    <t>besuche webseiten folgender journals und lies nach, wie eine einreichung aussehen muss, notiere in eienm dokument in dem paperordner jeweils journalnamen und max wortzahl für haupttext, abstract, …und besonderheiten: journals: "learning and instruction", "journal of educational psychology", "educational and psychological measurement"</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -106,6 +100,18 @@
   </si>
   <si>
     <t>GLMM-Artikel lesen + verstehen</t>
+  </si>
+  <si>
+    <t>Infos über Journals in einem Doc zusammengestellt</t>
+  </si>
+  <si>
+    <t>MAXQDA installieren + testen</t>
+  </si>
+  <si>
+    <t>überarbeiten mit neuer Laborstudie, ET genauer beschreiben</t>
+  </si>
+  <si>
+    <t>EV-Erklärung</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -203,6 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -519,16 +526,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978B23EF-BDBB-4406-B8A8-537EF3380855}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28" style="4" customWidth="1"/>
     <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
     <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.90625" style="4" customWidth="1"/>
@@ -538,22 +545,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -566,53 +573,56 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -639,23 +649,21 @@
       <c r="A13" s="9">
         <v>1</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -663,20 +671,17 @@
         <v>2</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -685,16 +690,16 @@
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -703,16 +708,16 @@
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -721,16 +726,16 @@
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -752,7 +757,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483F349-A466-430D-BC2F-BA8B15C6EFA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0200A4-A69B-4F5F-B687-82747B827C8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5350" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="5355" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>Erledigt</t>
   </si>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -210,6 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -524,26 +531,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978B23EF-BDBB-4406-B8A8-537EF3380855}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.90625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.90625" style="4"/>
+    <col min="4" max="4" width="27.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -563,13 +570,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -585,7 +592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -597,8 +604,12 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -607,8 +618,12 @@
       <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -618,34 +633,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -663,10 +678,10 @@
         <v>24</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -680,11 +695,11 @@
       <c r="F14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>3</v>
       </c>
@@ -698,11 +713,11 @@
       <c r="F15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>4</v>
       </c>
@@ -720,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>5</v>
       </c>
@@ -738,77 +753,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
     </row>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0200A4-A69B-4F5F-B687-82747B827C8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2780BF7-D5D8-448C-BC09-8D1B465B6B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="5355" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Erledigt</t>
   </si>
@@ -535,22 +535,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="4"/>
+    <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -570,13 +570,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -592,7 +592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -609,7 +609,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -623,7 +623,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -633,34 +633,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -681,7 +681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -699,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>3</v>
       </c>
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>4</v>
       </c>
@@ -735,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>5</v>
       </c>
@@ -753,77 +753,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
     </row>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0200A4-A69B-4F5F-B687-82747B827C8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C676A437-64AA-4B9F-A482-3C7C6AB87799}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="5355" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Erledigt</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>EV-Erklärung</t>
+  </si>
+  <si>
+    <t>Pilot A 031: AOIs in R plotten</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -215,7 +218,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -535,22 +537,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="4"/>
+    <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -570,13 +572,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -592,7 +594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -604,12 +606,12 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -618,12 +620,12 @@
       <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -632,35 +634,38 @@
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -669,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>27</v>
@@ -677,11 +682,11 @@
       <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -699,7 +704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>3</v>
       </c>
@@ -711,13 +716,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>4</v>
       </c>
@@ -735,7 +740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>5</v>
       </c>
@@ -753,77 +758,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
     </row>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C676A437-64AA-4B9F-A482-3C7C6AB87799}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED70114-51BF-4146-9CDE-DCA3325544D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Erledigt</t>
   </si>
@@ -69,9 +69,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>ziehe aus den drei journals wenn möglich je eine eyetracking studie, UND suche eine Bildungswissenschaftliche Studie in der Tobii Glasses benutzt wurden, lege die paper als pdf im paperordner in einen unterordner "examples" ab</t>
-  </si>
-  <si>
     <t>R auf English gestellt: Sys.setenv(LANG = "en")</t>
   </si>
   <si>
@@ -108,13 +105,19 @@
     <t>MAXQDA installieren + testen</t>
   </si>
   <si>
-    <t>überarbeiten mit neuer Laborstudie, ET genauer beschreiben</t>
-  </si>
-  <si>
     <t>EV-Erklärung</t>
   </si>
   <si>
     <t>Pilot A 031: AOIs in R plotten</t>
+  </si>
+  <si>
+    <t>überarbeitet mit neuer Laborstudie, ET genauer beschrieben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studie II mit aufnehmen </t>
+  </si>
+  <si>
+    <t>ziehe aus den drei Journals wenn möglich je eine eyetracking studie, UND suche eine Bildungswissenschaftliche Studie in der Tobii Glasses benutzt wurden, lege die paper als pdf im paperordner in einen unterordner "examples" ab</t>
   </si>
 </sst>
 </file>
@@ -537,13 +540,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
     <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
     <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
@@ -582,7 +585,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
@@ -591,20 +594,20 @@
         <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>10</v>
@@ -615,10 +618,10 @@
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>11</v>
@@ -629,10 +632,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>12</v>
@@ -642,12 +645,15 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
@@ -671,19 +677,19 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -698,7 +704,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>13</v>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED70114-51BF-4146-9CDE-DCA3325544D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBAAF2E-43D9-44EB-A8EA-02109FE0FA13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="5355" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Erledigt</t>
   </si>
   <si>
-    <t>To do-Allgemein</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
@@ -114,10 +111,22 @@
     <t>überarbeitet mit neuer Laborstudie, ET genauer beschrieben</t>
   </si>
   <si>
-    <t xml:space="preserve">Studie II mit aufnehmen </t>
-  </si>
-  <si>
     <t>ziehe aus den drei Journals wenn möglich je eine eyetracking studie, UND suche eine Bildungswissenschaftliche Studie in der Tobii Glasses benutzt wurden, lege die paper als pdf im paperordner in einen unterordner "examples" ab</t>
+  </si>
+  <si>
+    <t>Fragen</t>
+  </si>
+  <si>
+    <t>Studie I Teil B: mobiles Eye-Tracking bei stimulated recall Methode möglich (wurde bereits in Forschung eingesetzt), aber stationäres ET wäre vielleicht präziser --&gt; müsste ich mich nochmal informieren</t>
+  </si>
+  <si>
+    <t>Fragen siehe R File unter XXXGREGOR</t>
+  </si>
+  <si>
+    <t>Soll noch extra Studie II aufgenommen werden oder ersetzt Teil B eine zweite Studie?</t>
+  </si>
+  <si>
+    <t>Forschungsliteratur zu ET einbeziehen expert-novice</t>
   </si>
 </sst>
 </file>
@@ -540,301 +549,310 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="4"/>
+    <col min="4" max="4" width="27.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>1</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>3</v>
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>4</v>
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>5</v>
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
     </row>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBAAF2E-43D9-44EB-A8EA-02109FE0FA13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE2E2A-5B7E-403A-8F21-7423DDBC5B5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="5355" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Erledigt</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Fragen an Anne notiert</t>
   </si>
   <si>
-    <t>GLMM-Artikel lesen + verstehen</t>
-  </si>
-  <si>
     <t>Infos über Journals in einem Doc zusammengestellt</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>überarbeitet mit neuer Laborstudie, ET genauer beschrieben</t>
   </si>
   <si>
-    <t>ziehe aus den drei Journals wenn möglich je eine eyetracking studie, UND suche eine Bildungswissenschaftliche Studie in der Tobii Glasses benutzt wurden, lege die paper als pdf im paperordner in einen unterordner "examples" ab</t>
-  </si>
-  <si>
     <t>Fragen</t>
   </si>
   <si>
@@ -127,6 +121,27 @@
   </si>
   <si>
     <t>Forschungsliteratur zu ET einbeziehen expert-novice</t>
+  </si>
+  <si>
+    <t>Webseite: Banner und Text für "projekte"…bild mobile lab o.ä.</t>
+  </si>
+  <si>
+    <t>Webseite: einladungstext für deinen Pilot schreiben, vielleicht Bild dazu, ähnlich dem Text für Mockdataparty</t>
+  </si>
+  <si>
+    <t>UND suche eine Bildungswissenschaftliche Studie in der Tobii Glasses benutzt wurden, lege</t>
+  </si>
+  <si>
+    <t>Tobii Glasses Paper irgendwoher</t>
+  </si>
+  <si>
+    <t>Methodsection: Brille beschreiben</t>
+  </si>
+  <si>
+    <t>Eineleitung: Beispielpaper in einpflegen</t>
+  </si>
+  <si>
+    <t>LMM-Artikel lesen + verstehen</t>
   </si>
 </sst>
 </file>
@@ -549,22 +564,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="4"/>
+    <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -584,13 +599,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -606,7 +621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -623,7 +638,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -637,11 +652,11 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -650,94 +665,97 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>1</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>3</v>
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>4</v>
       </c>
@@ -749,13 +767,13 @@
         <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>5</v>
       </c>
@@ -773,86 +791,86 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="E22" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
     </row>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE2E2A-5B7E-403A-8F21-7423DDBC5B5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0AE00D-CC80-4767-A4A0-8E35AE80A3D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Erledigt</t>
   </si>
@@ -99,9 +99,6 @@
     <t>MAXQDA installieren + testen</t>
   </si>
   <si>
-    <t>EV-Erklärung</t>
-  </si>
-  <si>
     <t>Pilot A 031: AOIs in R plotten</t>
   </si>
   <si>
@@ -111,15 +108,9 @@
     <t>Fragen</t>
   </si>
   <si>
-    <t>Studie I Teil B: mobiles Eye-Tracking bei stimulated recall Methode möglich (wurde bereits in Forschung eingesetzt), aber stationäres ET wäre vielleicht präziser --&gt; müsste ich mich nochmal informieren</t>
-  </si>
-  <si>
     <t>Fragen siehe R File unter XXXGREGOR</t>
   </si>
   <si>
-    <t>Soll noch extra Studie II aufgenommen werden oder ersetzt Teil B eine zweite Studie?</t>
-  </si>
-  <si>
     <t>Forschungsliteratur zu ET einbeziehen expert-novice</t>
   </si>
   <si>
@@ -129,19 +120,28 @@
     <t>Webseite: einladungstext für deinen Pilot schreiben, vielleicht Bild dazu, ähnlich dem Text für Mockdataparty</t>
   </si>
   <si>
-    <t>UND suche eine Bildungswissenschaftliche Studie in der Tobii Glasses benutzt wurden, lege</t>
-  </si>
-  <si>
     <t>Tobii Glasses Paper irgendwoher</t>
   </si>
   <si>
     <t>Methodsection: Brille beschreiben</t>
   </si>
   <si>
-    <t>Eineleitung: Beispielpaper in einpflegen</t>
-  </si>
-  <si>
     <t>LMM-Artikel lesen + verstehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-Erklärung + subject list erstellen </t>
+  </si>
+  <si>
+    <t>Einladung schreiben für 29.07.</t>
+  </si>
+  <si>
+    <t>Einleitung: Beispielpaper in einpflegen</t>
+  </si>
+  <si>
+    <t>Bildungswissenschaftliche Studie in der Glasses benutzt wurden</t>
+  </si>
+  <si>
+    <t>PPP für SuS aus MockDataParty anpassen</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -246,6 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -564,7 +565,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,7 +670,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -679,7 +680,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -704,19 +705,19 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -725,10 +726,7 @@
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>23</v>
@@ -743,13 +741,10 @@
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>12</v>
@@ -760,14 +755,8 @@
         <v>4</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
+      <c r="F16" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>12</v>
@@ -779,10 +768,7 @@
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>12</v>
@@ -796,6 +782,9 @@
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
@@ -810,21 +799,15 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="E22" s="4" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0AE00D-CC80-4767-A4A0-8E35AE80A3D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650548FB-0233-4D46-BB1A-445768AF33A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Fragen siehe R File unter XXXGREGOR</t>
   </si>
   <si>
-    <t>Forschungsliteratur zu ET einbeziehen expert-novice</t>
-  </si>
-  <si>
     <t>Webseite: Banner und Text für "projekte"…bild mobile lab o.ä.</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>PPP für SuS aus MockDataParty anpassen</t>
+  </si>
+  <si>
+    <t>Forschungsliteratur zu ET einbezogen (expert-novice)</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -247,6 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -565,7 +566,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,7 +671,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -686,6 +687,9 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
+      <c r="E9" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
@@ -705,16 +709,13 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>24</v>
@@ -726,7 +727,7 @@
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>23</v>
@@ -741,10 +742,10 @@
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>12</v>
@@ -756,7 +757,7 @@
       </c>
       <c r="B16" s="9"/>
       <c r="F16" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>12</v>
@@ -768,7 +769,7 @@
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>12</v>
@@ -783,7 +784,7 @@
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650548FB-0233-4D46-BB1A-445768AF33A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BDB4C5-2AB3-4D11-BB70-B0732B521DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Erledigt</t>
   </si>
@@ -129,9 +129,6 @@
     <t xml:space="preserve">EV-Erklärung + subject list erstellen </t>
   </si>
   <si>
-    <t>Einladung schreiben für 29.07.</t>
-  </si>
-  <si>
     <t>Einleitung: Beispielpaper in einpflegen</t>
   </si>
   <si>
@@ -142,6 +139,21 @@
   </si>
   <si>
     <t>Forschungsliteratur zu ET einbezogen (expert-novice)</t>
+  </si>
+  <si>
+    <t>gutachterliche Stellungnahme der Betreuer*innen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abschlusszeugnis StEx </t>
+  </si>
+  <si>
+    <t>Darstellung des Lebenslaufes und des wissenschaftlichen Werdeganges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erklärung der Anerkennung der Promotionsordnung </t>
+  </si>
+  <si>
+    <t>Einladung für 29.07.</t>
   </si>
 </sst>
 </file>
@@ -232,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -248,6 +260,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -565,8 +578,8 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,7 +684,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -680,6 +693,9 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
+      <c r="D8" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
@@ -688,7 +704,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="E9" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -711,8 +727,8 @@
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>32</v>
@@ -729,6 +745,9 @@
       <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
@@ -742,7 +761,10 @@
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>28</v>
@@ -756,6 +778,9 @@
         <v>4</v>
       </c>
       <c r="B16" s="9"/>
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="13" t="s">
         <v>29</v>
       </c>
@@ -784,7 +809,7 @@
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BDB4C5-2AB3-4D11-BB70-B0732B521DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDEA06A-C9A4-432A-848C-087B342007F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Erledigt</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Webseite: Banner und Text für "projekte"…bild mobile lab o.ä.</t>
   </si>
   <si>
-    <t>Webseite: einladungstext für deinen Pilot schreiben, vielleicht Bild dazu, ähnlich dem Text für Mockdataparty</t>
-  </si>
-  <si>
     <t>Tobii Glasses Paper irgendwoher</t>
   </si>
   <si>
@@ -154,6 +151,12 @@
   </si>
   <si>
     <t>Einladung für 29.07.</t>
+  </si>
+  <si>
+    <t>Webseite: Einladungstext für Pilot geschrieben, vielleicht Bild dazu, ähnlich dem Text für Mockdataparty</t>
+  </si>
+  <si>
+    <t>EXPOSÉ ÜBERARBEITEN (siehe Stichpunkte)</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,6 +665,9 @@
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
@@ -676,6 +682,9 @@
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="F6" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="G6" s="12" t="s">
         <v>11</v>
       </c>
@@ -684,17 +693,18 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="D8" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
@@ -703,8 +713,11 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
+      <c r="D9" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -724,14 +737,14 @@
         <v>1</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>38</v>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>24</v>
@@ -743,10 +756,10 @@
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>23</v>
@@ -761,13 +774,10 @@
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>12</v>
@@ -778,11 +788,11 @@
         <v>4</v>
       </c>
       <c r="B16" s="9"/>
+      <c r="D16" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>12</v>
@@ -793,8 +803,8 @@
         <v>5</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="D17" s="4" t="s">
-        <v>31</v>
+      <c r="E17" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>12</v>
@@ -808,9 +818,6 @@
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9">

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDEA06A-C9A4-432A-848C-087B342007F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F08D7BF-13D8-4E0C-B522-EBF448A6FF3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="5355" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Erledigt</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>EXPOSÉ ÜBERARBEITEN (siehe Stichpunkte)</t>
+  </si>
+  <si>
+    <t>subjectlist neue kategorien</t>
+  </si>
+  <si>
+    <t>item für fragebogen auflisten</t>
+  </si>
+  <si>
+    <t>mocklist - auffüllen damit wir ein paar sachen schon mal im paper vorbereiten können</t>
+  </si>
+  <si>
+    <t>prozedur aufsezten: liste störhandlungen, beschreibung der störung als anweisung für probanden, groben Ablauf mit Zeitplan für eine Erhebungssession durchdenken (Begrüßung, Einführung, Kallibrierung, Fragebogenzeit…)</t>
   </si>
 </sst>
 </file>
@@ -578,26 +590,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978B23EF-BDBB-4406-B8A8-537EF3380855}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="4"/>
+    <col min="4" max="4" width="27.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,13 +629,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -639,7 +651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -656,7 +668,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -673,7 +685,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -689,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -700,7 +712,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="D8" s="15" t="s">
@@ -710,7 +722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="14" t="s">
@@ -720,19 +732,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -750,7 +762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -768,7 +780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>3</v>
       </c>
@@ -783,7 +795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>4</v>
       </c>
@@ -798,11 +810,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>5</v>
       </c>
       <c r="B17" s="9"/>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>40</v>
       </c>
@@ -813,82 +828,107 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="D19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>7</v>
       </c>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F08D7BF-13D8-4E0C-B522-EBF448A6FF3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D2C8D-8AF7-4E99-8B93-E0B0A9C04B28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="5355" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Erledigt</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>prozedur aufsezten: liste störhandlungen, beschreibung der störung als anweisung für probanden, groben Ablauf mit Zeitplan für eine Erhebungssession durchdenken (Begrüßung, Einführung, Kallibrierung, Fragebogenzeit…)</t>
+  </si>
+  <si>
+    <t>Nachlesen Regelungen erhebungen an schulen: https://www.revosax.sachsen.de/vorschrift/18743-VwV-Sponsoring-Spenden-und-Erhebungen-an-Schulen</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,6 +794,9 @@
       <c r="E15" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>12</v>
       </c>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D2C8D-8AF7-4E99-8B93-E0B0A9C04B28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CC5A6F-3C26-427B-8755-9B8B6983C547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="5355" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Erledigt</t>
   </si>
@@ -141,15 +141,6 @@
     <t>gutachterliche Stellungnahme der Betreuer*innen</t>
   </si>
   <si>
-    <t xml:space="preserve">Abschlusszeugnis StEx </t>
-  </si>
-  <si>
-    <t>Darstellung des Lebenslaufes und des wissenschaftlichen Werdeganges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erklärung der Anerkennung der Promotionsordnung </t>
-  </si>
-  <si>
     <t>Einladung für 29.07.</t>
   </si>
   <si>
@@ -172,6 +163,18 @@
   </si>
   <si>
     <t>Nachlesen Regelungen erhebungen an schulen: https://www.revosax.sachsen.de/vorschrift/18743-VwV-Sponsoring-Spenden-und-Erhebungen-an-Schulen</t>
+  </si>
+  <si>
+    <t>Lebenslauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erklärung Anerkennung der Promotionsordnung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abschlusszeugnis Hochschulzugang+StEx </t>
+  </si>
+  <si>
+    <t>Anschreiben</t>
   </si>
 </sst>
 </file>
@@ -593,26 +596,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978B23EF-BDBB-4406-B8A8-537EF3380855}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="4"/>
+    <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -632,13 +635,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -654,7 +657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -671,7 +674,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -688,7 +691,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -698,13 +701,13 @@
         <v>20</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -715,17 +718,17 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="D8" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="14" t="s">
@@ -735,206 +738,217 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="E10" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
         <v>1</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="13" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
         <v>2</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="D14" s="4" t="s">
+      <c r="B16" s="9"/>
+      <c r="D16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="D15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>4</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="D16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="D18" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="D18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>5</v>
+      </c>
       <c r="B19" s="9"/>
       <c r="D19" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>6</v>
+      </c>
       <c r="B20" s="9"/>
       <c r="D20" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
         <v>7</v>
       </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CC5A6F-3C26-427B-8755-9B8B6983C547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCAAA42-1234-451A-9423-6D312C57E229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
@@ -123,18 +123,9 @@
     <t>LMM-Artikel lesen + verstehen</t>
   </si>
   <si>
-    <t xml:space="preserve">EV-Erklärung + subject list erstellen </t>
-  </si>
-  <si>
-    <t>Einleitung: Beispielpaper in einpflegen</t>
-  </si>
-  <si>
     <t>Bildungswissenschaftliche Studie in der Glasses benutzt wurden</t>
   </si>
   <si>
-    <t>PPP für SuS aus MockDataParty anpassen</t>
-  </si>
-  <si>
     <t>Forschungsliteratur zu ET einbezogen (expert-novice)</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
     <t>Webseite: Einladungstext für Pilot geschrieben, vielleicht Bild dazu, ähnlich dem Text für Mockdataparty</t>
   </si>
   <si>
-    <t>EXPOSÉ ÜBERARBEITEN (siehe Stichpunkte)</t>
-  </si>
-  <si>
     <t>subjectlist neue kategorien</t>
   </si>
   <si>
@@ -175,6 +163,18 @@
   </si>
   <si>
     <t>Anschreiben</t>
+  </si>
+  <si>
+    <t>Exposé überarbeitet</t>
+  </si>
+  <si>
+    <t>EV-Erklärung</t>
+  </si>
+  <si>
+    <t>Subjectlist auf Server mit pers. Angaben</t>
+  </si>
+  <si>
+    <t>Einleitung in Beispielpaper einpflegen</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,7 +701,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>11</v>
@@ -711,7 +711,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -722,7 +722,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="D8" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
@@ -735,33 +735,39 @@
         <v>30</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="E10" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
+      <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -775,9 +781,10 @@
       <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="D15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="15"/>
       <c r="F15" s="4" t="s">
         <v>31</v>
       </c>
@@ -791,10 +798,10 @@
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>23</v>
@@ -809,13 +816,13 @@
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>12</v>
@@ -826,8 +833,8 @@
         <v>4</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="D18" s="13" t="s">
-        <v>33</v>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>12</v>
@@ -839,7 +846,7 @@
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>12</v>
@@ -854,22 +861,16 @@
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-      <c r="D21" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCAAA42-1234-451A-9423-6D312C57E229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA7295-DAFC-4FFA-B66A-9BE6A3657E1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="5360" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="5355" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Erledigt</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Einleitung in Beispielpaper einpflegen</t>
+  </si>
+  <si>
+    <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc)</t>
   </si>
 </sst>
 </file>
@@ -600,22 +603,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="4"/>
+    <col min="4" max="4" width="27.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -635,13 +638,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -657,7 +660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -674,7 +677,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -691,7 +694,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -707,7 +710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -718,7 +721,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="D8" s="15" t="s">
@@ -728,7 +731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="14" t="s">
@@ -738,14 +741,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="E10" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="D11" s="4" t="s">
@@ -755,25 +758,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="E13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -792,7 +795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -810,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -828,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>4</v>
       </c>
@@ -840,7 +843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>5</v>
       </c>
@@ -855,7 +858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>6</v>
       </c>
@@ -864,33 +867,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D21" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>7</v>
       </c>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
         <v>26</v>
@@ -899,55 +905,55 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
     </row>

--- a/todo_neu.xlsx
+++ b/todo_neu.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konzertkasse\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA7295-DAFC-4FFA-B66A-9BE6A3657E1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="5355" xr2:uid="{437BB29D-C085-46B0-AB3F-775756C491F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Erledigt</t>
   </si>
@@ -96,9 +95,6 @@
     <t>Infos über Journals in einem Doc zusammengestellt</t>
   </si>
   <si>
-    <t>MAXQDA installieren + testen</t>
-  </si>
-  <si>
     <t>Pilot A 031: AOIs in R plotten</t>
   </si>
   <si>
@@ -141,9 +137,6 @@
     <t>subjectlist neue kategorien</t>
   </si>
   <si>
-    <t>item für fragebogen auflisten</t>
-  </si>
-  <si>
     <t>mocklist - auffüllen damit wir ein paar sachen schon mal im paper vorbereiten können</t>
   </si>
   <si>
@@ -156,9 +149,6 @@
     <t>Lebenslauf</t>
   </si>
   <si>
-    <t xml:space="preserve">Erklärung Anerkennung der Promotionsordnung </t>
-  </si>
-  <si>
     <t xml:space="preserve">Abschlusszeugnis Hochschulzugang+StEx </t>
   </si>
   <si>
@@ -178,12 +168,18 @@
   </si>
   <si>
     <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc)</t>
+  </si>
+  <si>
+    <t>Geburtstag von Probanden</t>
+  </si>
+  <si>
+    <t>item für fragebogen auflisten + counterbalancing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -282,7 +278,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -598,12 +593,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978B23EF-BDBB-4406-B8A8-537EF3380855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>10</v>
@@ -703,8 +698,8 @@
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>36</v>
+      <c r="F6" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>11</v>
@@ -714,62 +709,67 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="D8" s="15" t="s">
-        <v>35</v>
+      <c r="D8" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="D9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>33</v>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="E10" s="14" t="s">
-        <v>45</v>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,17 +782,17 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -801,13 +801,10 @@
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>12</v>
@@ -819,12 +816,9 @@
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -837,7 +831,7 @@
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>12</v>
@@ -849,7 +843,7 @@
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>12</v>
@@ -864,15 +858,12 @@
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-      <c r="D21" s="4" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -899,10 +890,10 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
